--- a/results/Estimation/2024/Вилия-Стешицы/group-0/Вилия-Стешицы-гр0.xlsx
+++ b/results/Estimation/2024/Вилия-Стешицы/group-0/Вилия-Стешицы-гр0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ruslan\projects\pkogo\results\Вилия-Стешицы\group-0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ruslan\projects\pkogo\results\Estimation\2024\Вилия-Стешицы\group-0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18450" windowHeight="11235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Вилия-Стешицы-гр0" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Predictors</t>
   </si>
@@ -39,52 +39,13 @@
     <t>Pm</t>
   </si>
   <si>
-    <t>R2</t>
+    <t>S_2802, Smax, H_2802, X, X1, X2, L_2802</t>
   </si>
   <si>
-    <t>Criterion_t</t>
+    <t>53.64 + 0.486*S_2802 + 0.432*Smax + 0.442*H_2802 + 0.291*X + 0.225*X1 + 0.327*X2 + 0.424*L_2802</t>
   </si>
   <si>
-    <t>Correlation_t</t>
-  </si>
-  <si>
-    <t>Pm_t</t>
-  </si>
-  <si>
-    <t>R2_t</t>
-  </si>
-  <si>
-    <t>Criterion_f</t>
-  </si>
-  <si>
-    <t>Correlation_f</t>
-  </si>
-  <si>
-    <t>Pm_f</t>
-  </si>
-  <si>
-    <t>R2_f</t>
-  </si>
-  <si>
-    <t>ARDRegression</t>
-  </si>
-  <si>
-    <t>BayesianRidgeCV</t>
-  </si>
-  <si>
-    <t>BayesianRidge</t>
-  </si>
-  <si>
-    <t>ElasticNetCV</t>
-  </si>
-  <si>
-    <t>Ridge</t>
-  </si>
-  <si>
-    <t>RidgeCV</t>
-  </si>
-  <si>
-    <t>LinearRegression</t>
+    <t>OMP7</t>
   </si>
 </sst>
 </file>
@@ -909,15 +870,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -936,319 +895,25 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
       <c r="D2">
-        <v>0.53106869945719404</v>
+        <v>0.59142217309619505</v>
       </c>
       <c r="E2">
-        <v>0.84732876527168799</v>
+        <v>0.80636208564774003</v>
       </c>
       <c r="F2">
-        <v>73.3333333333333</v>
-      </c>
-      <c r="G2">
-        <v>0.71796603645684398</v>
-      </c>
-      <c r="I2">
-        <v>0.66649616164863301</v>
-      </c>
-      <c r="J2">
-        <v>0.745508461727725</v>
-      </c>
-      <c r="K2">
-        <v>60</v>
-      </c>
-      <c r="L2">
-        <v>0.55578286650763797</v>
-      </c>
-      <c r="N2">
-        <v>0.61459689573813403</v>
-      </c>
-      <c r="O2">
-        <v>0.78884133750016405</v>
-      </c>
-      <c r="P2">
-        <v>76.6666666666666</v>
-      </c>
-      <c r="Q2">
-        <v>0.62227065574904805</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>0.53767748324579001</v>
-      </c>
-      <c r="E3">
-        <v>0.84315059390981395</v>
-      </c>
-      <c r="F3">
-        <v>73.3333333333333</v>
-      </c>
-      <c r="G3">
-        <v>0.71090292401047195</v>
-      </c>
-      <c r="I3">
-        <v>0.64632857700226298</v>
-      </c>
-      <c r="J3">
-        <v>0.76305921824602096</v>
-      </c>
-      <c r="K3">
         <v>63.3333333333333</v>
-      </c>
-      <c r="L3">
-        <v>0.58225937055022903</v>
-      </c>
-      <c r="N3">
-        <v>0.62247802333852498</v>
-      </c>
-      <c r="O3">
-        <v>0.782637278987247</v>
-      </c>
-      <c r="P3">
-        <v>76.6666666666666</v>
-      </c>
-      <c r="Q3">
-        <v>0.61252111046056201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>0.53767824686960797</v>
-      </c>
-      <c r="E4">
-        <v>0.84315010694610304</v>
-      </c>
-      <c r="F4">
-        <v>73.3333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.71090210284322497</v>
-      </c>
-      <c r="I4">
-        <v>0.64632894476374703</v>
-      </c>
-      <c r="J4">
-        <v>0.76305890674349697</v>
-      </c>
-      <c r="K4">
-        <v>63.3333333333333</v>
-      </c>
-      <c r="L4">
-        <v>0.58225889516058005</v>
-      </c>
-      <c r="N4">
-        <v>0.62243655275943999</v>
-      </c>
-      <c r="O4">
-        <v>0.782670261214098</v>
-      </c>
-      <c r="P4">
-        <v>76.6666666666666</v>
-      </c>
-      <c r="Q4">
-        <v>0.61257273778894406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>0.67263914146566195</v>
-      </c>
-      <c r="E5">
-        <v>0.73997066520797605</v>
-      </c>
-      <c r="F5">
-        <v>63.3333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.54755658536833596</v>
-      </c>
-      <c r="I5">
-        <v>0.82549914855522999</v>
-      </c>
-      <c r="J5">
-        <v>0.564403362618073</v>
-      </c>
-      <c r="K5">
-        <v>63.3333333333333</v>
-      </c>
-      <c r="L5">
-        <v>0.31855115573458898</v>
-      </c>
-      <c r="N5">
-        <v>1.0471100542237799</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>56.6666666666666</v>
-      </c>
-      <c r="Q5">
-        <v>-9.6439465656529194E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>0.86557984302018798</v>
-      </c>
-      <c r="E6">
-        <v>0.50077094100710995</v>
-      </c>
-      <c r="F6">
-        <v>56.6666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.25077153535714602</v>
-      </c>
-      <c r="I6">
-        <v>1.00314528591922</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>53.3333333333333</v>
-      </c>
-      <c r="L6">
-        <v>-6.3004646619682003E-3</v>
-      </c>
-      <c r="N6">
-        <v>0.635404032987404</v>
-      </c>
-      <c r="O6">
-        <v>0.77217984619086</v>
-      </c>
-      <c r="P6">
-        <v>73.3333333333333</v>
-      </c>
-      <c r="Q6">
-        <v>0.59626171486334101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>1.4272711038725401</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>40</v>
-      </c>
-      <c r="G7">
-        <v>-1.03710280394956</v>
-      </c>
-      <c r="I7">
-        <v>1.49585108819392</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>36.6666666666666</v>
-      </c>
-      <c r="L7">
-        <v>-1.23757047805096</v>
-      </c>
-      <c r="N7">
-        <v>1.7694837989875001</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>30</v>
-      </c>
-      <c r="Q7">
-        <v>-2.1310729148792298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>2.1014100787826799</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>23.3333333333333</v>
-      </c>
-      <c r="G8">
-        <v>-3.4159243192094602</v>
-      </c>
-      <c r="I8">
-        <v>2.09509494405021</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>26.6666666666666</v>
-      </c>
-      <c r="L8">
-        <v>-3.38942282458475</v>
-      </c>
-      <c r="N8">
-        <v>2.0552718992214101</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>30</v>
-      </c>
-      <c r="Q8">
-        <v>-3.2241425797291998</v>
       </c>
     </row>
   </sheetData>
